--- a/datas_to_english/team_information.xlsx
+++ b/datas_to_english/team_information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>순위</t>
   </si>
@@ -55,6 +55,9 @@
     <t>image</t>
   </si>
   <si>
+    <t>teamid</t>
+  </si>
+  <si>
     <t>Ulsan</t>
   </si>
   <si>
@@ -254,6 +257,75 @@
   </si>
   <si>
     <t>https://www.kleague.com/assets/images/emblem/K07_32.png</t>
+  </si>
+  <si>
+    <t>7c925ac6-1512-497a-8807-19aee53531d2</t>
+  </si>
+  <si>
+    <t>c67f321d-fab0-4e2a-bdaf-5801469d37b5</t>
+  </si>
+  <si>
+    <t>5b8d0d04-7fc0-4b95-ba05-d124fa4334ac</t>
+  </si>
+  <si>
+    <t>d88ef14f-d2dc-4721-aacc-1f632f7347eb</t>
+  </si>
+  <si>
+    <t>1c104287-7c20-42e4-9fbb-5a9141b323ea</t>
+  </si>
+  <si>
+    <t>7508a993-6eee-47d8-a537-5d5aec6bb902</t>
+  </si>
+  <si>
+    <t>eaa39d6b-eb3b-4ee5-bab1-1908c7aabb73</t>
+  </si>
+  <si>
+    <t>2af463cf-4130-4f2e-9df8-d91f58f98780</t>
+  </si>
+  <si>
+    <t>05d44392-c3eb-4e0e-a3df-28a547d2b0d3</t>
+  </si>
+  <si>
+    <t>7c45e8da-a16c-4a6e-afb9-992af41f1f2b</t>
+  </si>
+  <si>
+    <t>2ba5bbb5-70f8-46c3-b473-907be766d907</t>
+  </si>
+  <si>
+    <t>037f0493-37c7-49c2-a571-bb9a1c67c0e9</t>
+  </si>
+  <si>
+    <t>fe67fd6b-7f29-448c-a4ef-241e6f3e6b43</t>
+  </si>
+  <si>
+    <t>97764f5d-102d-44f7-b018-515714df51bf</t>
+  </si>
+  <si>
+    <t>8130a434-1d36-4aae-b6ad-1aa871f06165</t>
+  </si>
+  <si>
+    <t>b00db273-1041-43c3-b471-4e86d8982b93</t>
+  </si>
+  <si>
+    <t>b9af5cac-c771-40c1-8e03-8c46bd84538d</t>
+  </si>
+  <si>
+    <t>1da80034-143c-4b79-b58a-96a68a75c340</t>
+  </si>
+  <si>
+    <t>b623377a-c762-48a0-9124-9bb8a345dae6</t>
+  </si>
+  <si>
+    <t>8107f4a7-7bb6-4207-940c-f34d2e82a8f0</t>
+  </si>
+  <si>
+    <t>c9986db9-5430-4be4-8bbd-d816e112ac1c</t>
+  </si>
+  <si>
+    <t>82f70bed-ebcd-4751-8245-7221838bc31d</t>
+  </si>
+  <si>
+    <t>f1657738-70c3-46c1-abc4-b8a6a6832705</t>
   </si>
 </sst>
 </file>
@@ -624,13 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +742,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -679,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -706,16 +781,19 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -723,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>19</v>
@@ -750,16 +828,19 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -767,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -794,16 +875,19 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -811,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -838,16 +922,19 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -855,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>19</v>
@@ -882,16 +969,19 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -899,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -926,16 +1016,19 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -943,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -970,16 +1063,19 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -987,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -1014,16 +1110,19 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1031,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -1058,16 +1157,19 @@
         <v>-1</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1075,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -1102,16 +1204,19 @@
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1119,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>19</v>
@@ -1146,16 +1251,19 @@
         <v>-2</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1163,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>19</v>
@@ -1190,16 +1298,19 @@
         <v>-20</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1207,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -1234,16 +1345,19 @@
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1251,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -1278,16 +1392,19 @@
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1295,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>21</v>
@@ -1322,16 +1439,19 @@
         <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>72</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1339,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -1366,16 +1486,19 @@
         <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>73</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1383,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>21</v>
@@ -1410,16 +1533,19 @@
         <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1427,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -1454,16 +1580,19 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1471,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1498,16 +1627,19 @@
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1515,7 +1647,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1542,16 +1674,19 @@
         <v>-16</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>77</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1559,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -1586,16 +1721,19 @@
         <v>-8</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1603,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>20</v>
@@ -1630,16 +1768,19 @@
         <v>-6</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>79</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1647,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>20</v>
@@ -1674,13 +1815,16 @@
         <v>-3</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/datas_to_english/team_information.xlsx
+++ b/datas_to_english/team_information.xlsx
@@ -259,73 +259,73 @@
     <t>https://www.kleague.com/assets/images/emblem/K07_32.png</t>
   </si>
   <si>
-    <t>7c925ac6-1512-497a-8807-19aee53531d2</t>
-  </si>
-  <si>
-    <t>c67f321d-fab0-4e2a-bdaf-5801469d37b5</t>
-  </si>
-  <si>
-    <t>5b8d0d04-7fc0-4b95-ba05-d124fa4334ac</t>
-  </si>
-  <si>
-    <t>d88ef14f-d2dc-4721-aacc-1f632f7347eb</t>
-  </si>
-  <si>
-    <t>1c104287-7c20-42e4-9fbb-5a9141b323ea</t>
-  </si>
-  <si>
-    <t>7508a993-6eee-47d8-a537-5d5aec6bb902</t>
-  </si>
-  <si>
-    <t>eaa39d6b-eb3b-4ee5-bab1-1908c7aabb73</t>
-  </si>
-  <si>
-    <t>2af463cf-4130-4f2e-9df8-d91f58f98780</t>
-  </si>
-  <si>
-    <t>05d44392-c3eb-4e0e-a3df-28a547d2b0d3</t>
-  </si>
-  <si>
-    <t>7c45e8da-a16c-4a6e-afb9-992af41f1f2b</t>
-  </si>
-  <si>
-    <t>2ba5bbb5-70f8-46c3-b473-907be766d907</t>
-  </si>
-  <si>
-    <t>037f0493-37c7-49c2-a571-bb9a1c67c0e9</t>
-  </si>
-  <si>
-    <t>fe67fd6b-7f29-448c-a4ef-241e6f3e6b43</t>
-  </si>
-  <si>
-    <t>97764f5d-102d-44f7-b018-515714df51bf</t>
-  </si>
-  <si>
-    <t>8130a434-1d36-4aae-b6ad-1aa871f06165</t>
-  </si>
-  <si>
-    <t>b00db273-1041-43c3-b471-4e86d8982b93</t>
-  </si>
-  <si>
-    <t>b9af5cac-c771-40c1-8e03-8c46bd84538d</t>
-  </si>
-  <si>
-    <t>1da80034-143c-4b79-b58a-96a68a75c340</t>
-  </si>
-  <si>
-    <t>b623377a-c762-48a0-9124-9bb8a345dae6</t>
-  </si>
-  <si>
-    <t>8107f4a7-7bb6-4207-940c-f34d2e82a8f0</t>
-  </si>
-  <si>
-    <t>c9986db9-5430-4be4-8bbd-d816e112ac1c</t>
-  </si>
-  <si>
-    <t>82f70bed-ebcd-4751-8245-7221838bc31d</t>
-  </si>
-  <si>
-    <t>f1657738-70c3-46c1-abc4-b8a6a6832705</t>
+    <t>0eeb011c-24fb-4476-91f7-d8e28ae49c2f</t>
+  </si>
+  <si>
+    <t>5e1a20f6-82bf-4dee-aa79-41702d9feb41</t>
+  </si>
+  <si>
+    <t>6afc31f0-3916-443a-92c4-b5eb425a9bc3</t>
+  </si>
+  <si>
+    <t>61f0969e-22a4-4374-8588-d6511915b05e</t>
+  </si>
+  <si>
+    <t>7fc75193-58a0-4e7d-ab42-382ec10a8be4</t>
+  </si>
+  <si>
+    <t>9cba5ad7-314e-4f2a-80a9-fc31cbf3f0c7</t>
+  </si>
+  <si>
+    <t>e5ca6e2b-5f54-4acd-ad7b-03e631313986</t>
+  </si>
+  <si>
+    <t>0435a227-38e8-494e-b1bf-271b00893eae</t>
+  </si>
+  <si>
+    <t>e5c40d19-b03a-4f5a-82c8-25540cd45e07</t>
+  </si>
+  <si>
+    <t>e0228b4f-7807-45db-a3f6-8c6e1f4adf41</t>
+  </si>
+  <si>
+    <t>630f61e8-543f-46e2-af63-2b62e8bc4fd2</t>
+  </si>
+  <si>
+    <t>94742748-e7ab-454b-8ff6-9893440bd059</t>
+  </si>
+  <si>
+    <t>57ebee16-96d2-46a6-ab16-2476b305fd91</t>
+  </si>
+  <si>
+    <t>3b8adc57-0f6f-482c-8306-9830e819d666</t>
+  </si>
+  <si>
+    <t>e42288a3-b5af-4464-bc45-85d438bcea11</t>
+  </si>
+  <si>
+    <t>4279fd55-c2c1-440d-abaa-430f3c27be44</t>
+  </si>
+  <si>
+    <t>5184566d-523a-4432-848d-ac234ffb6ac6</t>
+  </si>
+  <si>
+    <t>de503c24-f17d-47a9-9a47-6f0a194f8c9c</t>
+  </si>
+  <si>
+    <t>850a92da-c3d6-4fb9-a510-99626e9ad312</t>
+  </si>
+  <si>
+    <t>718c6b8f-7c00-4bcb-b53c-8f3f42154362</t>
+  </si>
+  <si>
+    <t>1ad987f9-6aa5-4e4d-8f1a-e8bea8fa4fcd</t>
+  </si>
+  <si>
+    <t>e7bb31c1-e095-453b-95ff-565ea62efb0a</t>
+  </si>
+  <si>
+    <t>7ba6e30b-04d4-4449-b7a9-2a6c7bb23764</t>
   </si>
 </sst>
 </file>

--- a/datas_to_english/team_information.xlsx
+++ b/datas_to_english/team_information.xlsx
@@ -259,73 +259,73 @@
     <t>https://www.kleague.com/assets/images/emblem/K07_32.png</t>
   </si>
   <si>
-    <t>0eeb011c-24fb-4476-91f7-d8e28ae49c2f</t>
-  </si>
-  <si>
-    <t>5e1a20f6-82bf-4dee-aa79-41702d9feb41</t>
-  </si>
-  <si>
-    <t>6afc31f0-3916-443a-92c4-b5eb425a9bc3</t>
-  </si>
-  <si>
-    <t>61f0969e-22a4-4374-8588-d6511915b05e</t>
-  </si>
-  <si>
-    <t>7fc75193-58a0-4e7d-ab42-382ec10a8be4</t>
-  </si>
-  <si>
-    <t>9cba5ad7-314e-4f2a-80a9-fc31cbf3f0c7</t>
-  </si>
-  <si>
-    <t>e5ca6e2b-5f54-4acd-ad7b-03e631313986</t>
-  </si>
-  <si>
-    <t>0435a227-38e8-494e-b1bf-271b00893eae</t>
-  </si>
-  <si>
-    <t>e5c40d19-b03a-4f5a-82c8-25540cd45e07</t>
-  </si>
-  <si>
-    <t>e0228b4f-7807-45db-a3f6-8c6e1f4adf41</t>
-  </si>
-  <si>
-    <t>630f61e8-543f-46e2-af63-2b62e8bc4fd2</t>
-  </si>
-  <si>
-    <t>94742748-e7ab-454b-8ff6-9893440bd059</t>
-  </si>
-  <si>
-    <t>57ebee16-96d2-46a6-ab16-2476b305fd91</t>
-  </si>
-  <si>
-    <t>3b8adc57-0f6f-482c-8306-9830e819d666</t>
-  </si>
-  <si>
-    <t>e42288a3-b5af-4464-bc45-85d438bcea11</t>
-  </si>
-  <si>
-    <t>4279fd55-c2c1-440d-abaa-430f3c27be44</t>
-  </si>
-  <si>
-    <t>5184566d-523a-4432-848d-ac234ffb6ac6</t>
-  </si>
-  <si>
-    <t>de503c24-f17d-47a9-9a47-6f0a194f8c9c</t>
-  </si>
-  <si>
-    <t>850a92da-c3d6-4fb9-a510-99626e9ad312</t>
-  </si>
-  <si>
-    <t>718c6b8f-7c00-4bcb-b53c-8f3f42154362</t>
-  </si>
-  <si>
-    <t>1ad987f9-6aa5-4e4d-8f1a-e8bea8fa4fcd</t>
-  </si>
-  <si>
-    <t>e7bb31c1-e095-453b-95ff-565ea62efb0a</t>
-  </si>
-  <si>
-    <t>7ba6e30b-04d4-4449-b7a9-2a6c7bb23764</t>
+    <t>0874d67c-598f-44e3-920b-4561908dfe3b</t>
+  </si>
+  <si>
+    <t>9e34f94d-c31f-4c23-99d2-a2822dd88d51</t>
+  </si>
+  <si>
+    <t>003c4550-974d-4aa8-9276-e3ef21048e79</t>
+  </si>
+  <si>
+    <t>fb8d99d6-9f17-469f-9dd5-003d5c7968d9</t>
+  </si>
+  <si>
+    <t>9e9e4955-a3b5-41f2-a00c-bd1f5310c968</t>
+  </si>
+  <si>
+    <t>1921564e-062f-4597-95dc-95074a120bb7</t>
+  </si>
+  <si>
+    <t>a0768df2-6a70-45cb-9b17-170d678f0408</t>
+  </si>
+  <si>
+    <t>bf18fea4-73ce-4d76-86f9-bbf70bcbff6a</t>
+  </si>
+  <si>
+    <t>a75e188a-12c5-4285-bcec-2d97ca3c7153</t>
+  </si>
+  <si>
+    <t>2111d74d-0d3e-4e4f-9f1b-b6e8c0cfe0f4</t>
+  </si>
+  <si>
+    <t>50be74bd-92cf-49cc-97dc-5599f0670e91</t>
+  </si>
+  <si>
+    <t>d55d68ed-1702-4f23-b775-3777dd67494c</t>
+  </si>
+  <si>
+    <t>5c8943e1-fcd8-4718-b614-972b56a08435</t>
+  </si>
+  <si>
+    <t>1c9e5a86-8cbe-46d6-989c-5e819a6aaf27</t>
+  </si>
+  <si>
+    <t>5c8fd640-4c38-43fd-be97-b526717d2df2</t>
+  </si>
+  <si>
+    <t>92c24ef1-b25c-4ff5-bb92-9058df7f7b6e</t>
+  </si>
+  <si>
+    <t>2412507d-742b-4053-9f4e-e96905c184cd</t>
+  </si>
+  <si>
+    <t>4c6a902c-c4c5-4ae2-88a1-05cd3ec101b8</t>
+  </si>
+  <si>
+    <t>19995c9e-d80e-471a-9813-a42cd6f71119</t>
+  </si>
+  <si>
+    <t>af854dff-40e7-4c50-a0f1-6dd6958c6784</t>
+  </si>
+  <si>
+    <t>331efece-b4e3-4565-86c3-931d3f793263</t>
+  </si>
+  <si>
+    <t>166314d0-c6c7-44e5-b2c2-2c69a7f25cd8</t>
+  </si>
+  <si>
+    <t>32128616-e39a-4800-9f53-f18630bc75d0</t>
   </si>
 </sst>
 </file>
